--- a/영화예매_명세서.xlsx
+++ b/영화예매_명세서.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="8040" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="회원" sheetId="1" r:id="rId1"/>
     <sheet name="영화" sheetId="2" r:id="rId2"/>
+    <sheet name="극장" sheetId="3" r:id="rId3"/>
+    <sheet name="예매" sheetId="4" r:id="rId4"/>
+    <sheet name="리뷰" sheetId="5" r:id="rId5"/>
+    <sheet name="학생&amp;교수" sheetId="6" r:id="rId6"/>
+    <sheet name="과목&amp;성적" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">영화!$C$3:$C$24</definedName>
@@ -789,8 +794,1609 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상영관</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3 : 3D </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">상영관
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 : 4DX </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">상영관
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">i : iMax </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">상영관
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">s : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특별</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상영관</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : 3D </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">상영관
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 : 4DX </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">상영관
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">I : iMax </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">상영관
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">s : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특별</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상영관
+각각을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연이어</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반석</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>장애인석</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단순고장</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+d : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>불가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>거리두기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="I8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">카드결제
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">휴대폰결제
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>c :</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무통장</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+d : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계좌</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이체</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대기중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">상영중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종영</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대기중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예매</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예매</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취소</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조조</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>심야</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어린이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>청소년</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>성인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경로</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, 3D, 4D, iMax, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특별</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>장애인석</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커플</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로얄</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>군인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수험생</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>국가유공자</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>평일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주말</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공휴일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문화의날</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="D15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">재학
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">휴학
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">군휴학
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">d : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">졸업
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">중퇴
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">f : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제적</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">재직중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">연구중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>퇴직</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전공필수
+전공선택
+교양필수
+교양선택</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="537">
   <si>
     <t>t_member_info : 회원정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1373,6 +2979,1568 @@
   </si>
   <si>
     <t>장르번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_film_stillcut : 영화 스틸컷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19금 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_isadult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_director_n_actor : 영화 감독&amp;배우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감독&amp;배우 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(한글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(원문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_namekr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_nameen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_nameor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_film_dna : 영화 출연 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감독&amp;배우 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감독, 배우 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보여질 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배역 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_increment,
+unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_theater_info : 극장정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역-시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역-구군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장회사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 특별관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약도 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_sido</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_gugun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_img2</t>
+  </si>
+  <si>
+    <t>ti_img3</t>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_addr2</t>
+  </si>
+  <si>
+    <t>ti_location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_theater_screen : 극장 내 상영관 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린 가로 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린 세로 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애인석 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대피도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>층수(지하면 음수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석 배치도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_seatcnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_diseat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_seatmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'n'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_screen_seat : 극장 내 좌석 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss_seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss_issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_movie_schedule : 영화 상영시간표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회차 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종영일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화종료시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_sdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_edate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_stime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_etime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_reservation_info : 예매 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 회차 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매 인원수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_vdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_patment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_upoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_spoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_reservation_detail : 예매 좌석 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_ticket_price : 티켓 가격 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'일반'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'성인'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'평일'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai,pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mr_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_movie_review : 영화 리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_student_info : 학생정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID(학번)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입학일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_addr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_major_info : 학과정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부임일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_addr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_professor_info : 교수정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_lecture_info : 과목정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_exam_info : 시험정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai, pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_exam_score : 시험성적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,12 +4616,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1463,6 +4628,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1747,7 +4918,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1761,42 +4932,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1871,7 +5042,7 @@
       <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I5" t="s">
@@ -1949,7 +5120,7 @@
       <c r="G8" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I8" t="s">
@@ -2040,7 +5211,7 @@
       <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
@@ -2060,10 +5231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2077,432 +5248,2626 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="K7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" t="s">
+        <v>188</v>
+      </c>
+      <c r="M11" t="s">
+        <v>180</v>
+      </c>
+      <c r="N11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" t="s">
+        <v>191</v>
+      </c>
+      <c r="N12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>131</v>
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>229</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>129</v>
+        <v>269</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>214</v>
+      </c>
+      <c r="F6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" t="s">
+        <v>284</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>290</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" t="s">
+        <v>295</v>
+      </c>
+      <c r="I21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F17:I17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>317</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" t="s">
+        <v>350</v>
+      </c>
+      <c r="I18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" t="s">
+        <v>356</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>374</v>
+      </c>
+      <c r="I20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" t="s">
+        <v>354</v>
+      </c>
+      <c r="G21" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="3.25" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H4" t="s">
+        <v>455</v>
+      </c>
+      <c r="I4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>436</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>440</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>466</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>131</v>
+        <v>482</v>
+      </c>
+      <c r="H9" t="s">
+        <v>430</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>467</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>482</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>433</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>442</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>468</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>482</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>433</v>
       </c>
       <c r="I11" t="s">
-        <v>145</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>452</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>418</v>
+      </c>
+      <c r="F12" t="s">
+        <v>469</v>
+      </c>
+      <c r="G12" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I12" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>443</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>444</v>
+      </c>
+      <c r="C13" t="s">
+        <v>433</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>419</v>
+      </c>
+      <c r="F13" t="s">
+        <v>470</v>
+      </c>
+      <c r="G13" t="s">
+        <v>483</v>
+      </c>
+      <c r="H13" t="s">
+        <v>433</v>
+      </c>
+      <c r="I13" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>425</v>
+      </c>
+      <c r="F14" t="s">
+        <v>471</v>
+      </c>
+      <c r="G14" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" t="s">
+        <v>433</v>
+      </c>
+      <c r="I14" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>447</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>129</v>
+        <v>448</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>426</v>
+      </c>
+      <c r="F15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G15" t="s">
+        <v>484</v>
+      </c>
+      <c r="H15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I15" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
+      <c r="F16" t="s">
+        <v>473</v>
+      </c>
+      <c r="G16" t="s">
+        <v>442</v>
+      </c>
+      <c r="H16" t="s">
+        <v>433</v>
+      </c>
+      <c r="I16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>474</v>
+      </c>
+      <c r="G17" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" t="s">
+        <v>433</v>
+      </c>
+      <c r="I17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>452</v>
+      </c>
+      <c r="H18" t="s">
+        <v>475</v>
+      </c>
+      <c r="I18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>476</v>
+      </c>
+      <c r="G19" t="s">
+        <v>442</v>
+      </c>
+      <c r="H19" t="s">
+        <v>486</v>
+      </c>
+      <c r="I19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>477</v>
+      </c>
+      <c r="G20" t="s">
+        <v>442</v>
+      </c>
+      <c r="H20" t="s">
+        <v>486</v>
+      </c>
+      <c r="I20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>478</v>
+      </c>
+      <c r="G21" t="s">
+        <v>442</v>
+      </c>
+      <c r="H21" t="s">
+        <v>486</v>
+      </c>
+      <c r="I21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>479</v>
+      </c>
+      <c r="G22" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" t="s">
+        <v>486</v>
+      </c>
+      <c r="I22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>480</v>
+      </c>
+      <c r="G23" t="s">
+        <v>485</v>
+      </c>
+      <c r="H23" t="s">
+        <v>486</v>
+      </c>
+      <c r="I23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>481</v>
+      </c>
+      <c r="G24" t="s">
+        <v>448</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I24" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +7878,367 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>521</v>
+      </c>
+      <c r="I3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H4" t="s">
+        <v>433</v>
+      </c>
+      <c r="I4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" t="s">
+        <v>495</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" t="s">
+        <v>534</v>
+      </c>
+      <c r="G10" t="s">
+        <v>506</v>
+      </c>
+      <c r="H10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>497</v>
+      </c>
+      <c r="F11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" t="s">
+        <v>429</v>
+      </c>
+      <c r="H11" t="s">
+        <v>533</v>
+      </c>
+      <c r="I11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" t="s">
+        <v>498</v>
+      </c>
+      <c r="F12" t="s">
+        <v>519</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>533</v>
+      </c>
+      <c r="I12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>494</v>
+      </c>
+      <c r="F13" t="s">
+        <v>512</v>
+      </c>
+      <c r="G13" t="s">
+        <v>513</v>
+      </c>
+      <c r="H13" t="s">
+        <v>533</v>
+      </c>
+      <c r="I13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>535</v>
+      </c>
+      <c r="G14" t="s">
+        <v>506</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>536</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F8:I8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>